--- a/data/GAMS_output/TF_conc_results.xlsx
+++ b/data/GAMS_output/TF_conc_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBRG\Dropbox (UCSD SBRG)\TRN_iM_modeling\GAMS\chris_testing\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E7A9D-98E0-4D4E-98C8-DD8E79B3C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C977155-F496-4120-907E-39D676238AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18570" yWindow="4020" windowWidth="15630" windowHeight="16440" xr2:uid="{5A4EF1EB-DB71-40D3-B0E9-1B2B7C5ECF2C}"/>
+    <workbookView xWindow="2805" yWindow="4485" windowWidth="11025" windowHeight="16155" xr2:uid="{5A4EF1EB-DB71-40D3-B0E9-1B2B7C5ECF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>control__wt_glc__1</t>
   </si>
@@ -744,18 +744,6 @@
   </si>
   <si>
     <t>fps__fps_serB_ale4__2</t>
-  </si>
-  <si>
-    <t>fps__fps_ptsI_ale1__1</t>
-  </si>
-  <si>
-    <t>fps__fps_ptsI_ale1__2</t>
-  </si>
-  <si>
-    <t>fps__fps_ptsI_ale3__1</t>
-  </si>
-  <si>
-    <t>fps__fps_ptsI_ale3__2</t>
   </si>
   <si>
     <t>pal__lyx_ale2_f6__1</t>
@@ -2051,853 +2039,833 @@
       <c r="JN1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="JO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="JO1" s="1"/>
+      <c r="JP1" s="1"/>
+      <c r="JQ1" s="1"/>
+      <c r="JR1" s="1"/>
     </row>
     <row r="2" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-5.2326561710404711</v>
+        <v>-6.025540382671223</v>
       </c>
       <c r="B2">
-        <v>-5.3420626142160348</v>
+        <v>-6.0970550497780032</v>
       </c>
       <c r="C2">
-        <v>-5.6130253260077172</v>
+        <v>-6.1976211009018742</v>
       </c>
       <c r="D2">
-        <v>-5.5599509134092235</v>
+        <v>-6.4135523754731292</v>
       </c>
       <c r="E2">
-        <v>-5.392731884355122</v>
+        <v>-6.1547969021632802</v>
       </c>
       <c r="F2">
-        <v>-5.2720165540096984</v>
+        <v>-6.0801432076428013</v>
       </c>
       <c r="G2">
-        <v>-5.5160432653555134</v>
+        <v>-6.3308240006479783</v>
       </c>
       <c r="H2">
-        <v>-5.6512305526727875</v>
+        <v>-5.939077460156402</v>
       </c>
       <c r="I2">
-        <v>-5.5271553028777998</v>
+        <v>-6.0518512405113123</v>
       </c>
       <c r="J2">
-        <v>-5.3810524791519354</v>
+        <v>-6.1662448267319725</v>
       </c>
       <c r="K2">
-        <v>-5.3751229321793215</v>
+        <v>-5.9341976895703903</v>
       </c>
       <c r="L2">
-        <v>-5.3246974577370878</v>
+        <v>-6.1639960792295208</v>
       </c>
       <c r="M2">
-        <v>-5.2501747999572075</v>
+        <v>-6.0992112489430861</v>
       </c>
       <c r="N2">
-        <v>-5.2552693278401073</v>
+        <v>-6.0588896400320333</v>
       </c>
       <c r="O2">
-        <v>-5.2077270236435123</v>
+        <v>-5.9088165793771497</v>
       </c>
       <c r="P2">
-        <v>-5.2370591809070115</v>
+        <v>-6.1356380249065685</v>
       </c>
       <c r="Q2">
-        <v>-5.3281377439083784</v>
+        <v>-6.0873664550665589</v>
       </c>
       <c r="R2">
-        <v>-5.3662795873905962</v>
+        <v>-5.9255758259009195</v>
       </c>
       <c r="S2">
-        <v>-5.4844558891955346</v>
+        <v>-6.5881803095960798</v>
       </c>
       <c r="T2">
-        <v>-5.8518178966834986</v>
+        <v>-6.5373167981744205</v>
       </c>
       <c r="U2">
-        <v>-5.5472836714509244</v>
+        <v>-6.4356478504772632</v>
       </c>
       <c r="V2">
-        <v>-5.4622408220147118</v>
+        <v>-6.2475965179393382</v>
       </c>
       <c r="W2">
-        <v>-5.6858179846503312</v>
+        <v>-6.6550877299278746</v>
       </c>
       <c r="X2">
-        <v>-5.6293910188027771</v>
+        <v>-6.3164454229271438</v>
       </c>
       <c r="Y2">
-        <v>-5.449856610992458</v>
+        <v>-6.1422250471440636</v>
       </c>
       <c r="Z2">
-        <v>-5.7093212467840875</v>
+        <v>-6.8790273992573505</v>
       </c>
       <c r="AA2">
-        <v>-5.5189562769765059</v>
+        <v>-6.1772471271471643</v>
       </c>
       <c r="AB2">
-        <v>-5.4749540868099018</v>
+        <v>-6.2749607175077919</v>
       </c>
       <c r="AC2">
-        <v>-5.5109937269394642</v>
+        <v>-6.2709959634768504</v>
       </c>
       <c r="AD2">
-        <v>-5.4029827911967256</v>
+        <v>-6.164199002915554</v>
       </c>
       <c r="AE2">
-        <v>-5.4794514136285102</v>
+        <v>-6.3185589945089413</v>
       </c>
       <c r="AF2">
-        <v>-5.5357713453036492</v>
+        <v>-6.1850164791063316</v>
       </c>
       <c r="AG2">
-        <v>-5.4859784176405153</v>
+        <v>-6.1820571828330939</v>
       </c>
       <c r="AH2">
-        <v>-5.5125357481229385</v>
+        <v>-6.4076946381103701</v>
       </c>
       <c r="AI2">
-        <v>-5.8062998584864864</v>
+        <v>-6.1240932496257976</v>
       </c>
       <c r="AJ2">
-        <v>-5.3861346191292041</v>
+        <v>-6.2917226450591315</v>
       </c>
       <c r="AK2">
-        <v>-5.9260184174223314</v>
+        <v>-6.1743641653996404</v>
       </c>
       <c r="AL2">
-        <v>-5.5557981561490912</v>
+        <v>-6.2590998355082634</v>
       </c>
       <c r="AM2">
-        <v>-5.1885671712590966</v>
+        <v>-6.1118232841668734</v>
       </c>
       <c r="AN2">
-        <v>-5.3468063959311127</v>
+        <v>-6.1255192110989825</v>
       </c>
       <c r="AO2">
-        <v>-5.4861518513472785</v>
+        <v>-6.1454380364209635</v>
       </c>
       <c r="AP2">
-        <v>-5.5592061225341736</v>
+        <v>-6.2861467304991718</v>
       </c>
       <c r="AQ2">
-        <v>-5.2546492075852278</v>
+        <v>-6.1277484597330654</v>
       </c>
       <c r="AR2">
-        <v>-5.2177807710901698</v>
+        <v>-6.0489818898683447</v>
       </c>
       <c r="AS2">
-        <v>-5.1940696209121073</v>
+        <v>-5.8894278727145943</v>
       </c>
       <c r="AT2">
-        <v>-5.0801429172074615</v>
+        <v>-6.0693011921543434</v>
       </c>
       <c r="AU2">
-        <v>-5.5878015479835206</v>
+        <v>-6.1160003813781207</v>
       </c>
       <c r="AV2">
-        <v>-5.3544787046997451</v>
+        <v>-6.1767471453117997</v>
       </c>
       <c r="AW2">
-        <v>-5.4680363057695027</v>
+        <v>-6.2256478098953476</v>
       </c>
       <c r="AX2">
-        <v>-5.2887961372634056</v>
+        <v>-6.0622138723168746</v>
       </c>
       <c r="AY2">
-        <v>-5.306501996627139</v>
+        <v>-6.1080824393979647</v>
       </c>
       <c r="AZ2">
-        <v>-5.4011046260152105</v>
+        <v>-5.9069757052513365</v>
       </c>
       <c r="BA2">
-        <v>-5.3289086110710056</v>
+        <v>-6.0775437277368249</v>
       </c>
       <c r="BB2">
-        <v>-5.3998751295085432</v>
+        <v>-6.309013961915932</v>
       </c>
       <c r="BC2">
-        <v>-5.2461490437087095</v>
+        <v>-8.0900534384648282</v>
       </c>
       <c r="BD2">
-        <v>-5.0951837371322029</v>
+        <v>-5.020696194177634</v>
       </c>
       <c r="BE2">
-        <v>-5.1032073982774193</v>
+        <v>-5.0136040135964288</v>
       </c>
       <c r="BF2">
-        <v>-5.1554257155450927</v>
+        <v>-5.3529718185714543</v>
       </c>
       <c r="BG2">
-        <v>-5.1125651719621796</v>
+        <v>-5.3601537885578283</v>
       </c>
       <c r="BH2">
-        <v>-5.7064452363181806</v>
+        <v>-6.1587102970181462</v>
       </c>
       <c r="BI2">
-        <v>-5.4901218260170319</v>
+        <v>-6.2219120568813828</v>
       </c>
       <c r="BJ2">
-        <v>-5.0743959765118962</v>
+        <v>-5.2841064879516599</v>
       </c>
       <c r="BK2">
-        <v>-5.0954660691711577</v>
+        <v>-5.2798177164411948</v>
       </c>
       <c r="BL2">
-        <v>-5.6881477492496781</v>
+        <v>-6.5322898888162788</v>
       </c>
       <c r="BM2">
-        <v>-5.4607354018857341</v>
+        <v>-5.9714534089940683</v>
       </c>
       <c r="BN2">
-        <v>-5.6642236400053667</v>
+        <v>-6.3463326528540183</v>
       </c>
       <c r="BO2">
-        <v>-5.5500672572637946</v>
+        <v>-6.2454671541526796</v>
       </c>
       <c r="BP2">
-        <v>-5.5543389620489965</v>
+        <v>-6.3243062149097362</v>
       </c>
       <c r="BQ2">
-        <v>-5.3360815656171754</v>
+        <v>-6.1168571525060784</v>
       </c>
       <c r="BR2">
-        <v>-5.2111361935246938</v>
+        <v>-5.9747274279280838</v>
       </c>
       <c r="BS2">
-        <v>-5.3290865578746756</v>
+        <v>-6.1995382096212897</v>
       </c>
       <c r="BT2">
-        <v>-5.4107214191575643</v>
+        <v>-5.9947436323763723</v>
       </c>
       <c r="BU2">
-        <v>-5.2844261599609847</v>
+        <v>-6.2397601929544413</v>
       </c>
       <c r="BV2">
-        <v>-5.1851501041193586</v>
+        <v>-6.2408537670164668</v>
       </c>
       <c r="BW2">
-        <v>-5.1866650781180139</v>
+        <v>-5.5102624561074238</v>
       </c>
       <c r="BX2">
-        <v>-5.330478848396039</v>
+        <v>-8.3046425296076727</v>
       </c>
       <c r="BY2">
-        <v>-5.245913744310629</v>
+        <v>-5.9939295694564843</v>
       </c>
       <c r="BZ2">
-        <v>-5.0003374174252064</v>
+        <v>-6.4057985381128182</v>
       </c>
       <c r="CA2">
-        <v>-5.2748856909133499</v>
+        <v>-5.9791565914051263</v>
       </c>
       <c r="CB2">
-        <v>-5.2856707705372106</v>
+        <v>-6.0323436261977887</v>
       </c>
       <c r="CC2">
-        <v>-5.1470701715310501</v>
+        <v>-6.0465630787400544</v>
       </c>
       <c r="CD2">
-        <v>-5.0436008070312672</v>
+        <v>-5</v>
       </c>
       <c r="CE2">
-        <v>-5.0898198822332841</v>
+        <v>-5</v>
       </c>
       <c r="CF2">
-        <v>-5.1830224618069769</v>
+        <v>-5.4534720924445557</v>
       </c>
       <c r="CG2">
-        <v>-5.1375170537330979</v>
+        <v>-5.2999444347758606</v>
       </c>
       <c r="CH2">
-        <v>-5.043396952016221</v>
+        <v>-5.0045620716760926</v>
       </c>
       <c r="CI2">
-        <v>-5.0603054733500858</v>
+        <v>-5.118196951048378</v>
       </c>
       <c r="CJ2">
-        <v>-5.4791412565569386</v>
+        <v>-6.3145502741702542</v>
       </c>
       <c r="CK2">
-        <v>-5.4976841852870564</v>
+        <v>-6.3439291750452824</v>
       </c>
       <c r="CL2">
-        <v>-5.3344731906984286</v>
+        <v>-6.1868102217286296</v>
       </c>
       <c r="CM2">
-        <v>-5.3457222497149122</v>
+        <v>-6.0098680577478358</v>
       </c>
       <c r="CN2">
-        <v>-5.0902894742999312</v>
+        <v>-5</v>
       </c>
       <c r="CO2">
-        <v>-5.3666694632732135</v>
+        <v>-6.0644979853774537</v>
       </c>
       <c r="CP2">
-        <v>-5.0659235963972433</v>
+        <v>-5.0935269340163005</v>
       </c>
       <c r="CQ2">
-        <v>-5.1797326180531895</v>
+        <v>-5.020694326108905</v>
       </c>
       <c r="CR2">
-        <v>-5.0747331840809053</v>
+        <v>-5.6273323895942813</v>
       </c>
       <c r="CS2">
-        <v>-5.110914842293834</v>
+        <v>-5.4332655050727707</v>
       </c>
       <c r="CT2">
-        <v>-5.1020954838845132</v>
+        <v>-5.0831059225198567</v>
       </c>
       <c r="CU2">
-        <v>-5.2195618688450391</v>
+        <v>-5.0805810242753697</v>
       </c>
       <c r="CV2">
-        <v>-5.231796582290154</v>
+        <v>-5.9974477331819855</v>
       </c>
       <c r="CW2">
-        <v>-5.2217424023590508</v>
+        <v>-6.1579627470948308</v>
       </c>
       <c r="CX2">
-        <v>-5.1951513117463159</v>
+        <v>-6.263624326854015</v>
       </c>
       <c r="CY2">
-        <v>-5.1420014301250978</v>
+        <v>-5.0523275822252458</v>
       </c>
       <c r="CZ2">
-        <v>-5.3485236448338451</v>
+        <v>-5.3993580866329562</v>
       </c>
       <c r="DA2">
-        <v>-5.2484006808458208</v>
+        <v>-5.3703772167190849</v>
       </c>
       <c r="DB2">
-        <v>-5.0475019532150434</v>
+        <v>-5.3842719062090563</v>
       </c>
       <c r="DC2">
-        <v>-5.0415558096782522</v>
+        <v>-5.2621974353011449</v>
       </c>
       <c r="DD2">
-        <v>-5.7237514910544149</v>
+        <v>-8.5821515973908546</v>
       </c>
       <c r="DE2">
-        <v>-5.7058131138630044</v>
+        <v>-6.4951271916470619</v>
       </c>
       <c r="DF2">
-        <v>-6.0707265205529639</v>
+        <v>-7.04259724462647</v>
       </c>
       <c r="DG2">
-        <v>-5.7023731731395326</v>
+        <v>-9</v>
       </c>
       <c r="DH2">
-        <v>-6.3186555656812464</v>
+        <v>-9</v>
       </c>
       <c r="DI2">
-        <v>-5.7460532801424229</v>
+        <v>-7.5828602188549397</v>
       </c>
       <c r="DJ2">
-        <v>-5.9970600844035422</v>
+        <v>-7.9396818442754284</v>
       </c>
       <c r="DK2">
-        <v>-5.7689448858696393</v>
+        <v>-7.7290620432253547</v>
       </c>
       <c r="DL2">
-        <v>-5.6059831429951652</v>
+        <v>-6.3829545430098831</v>
       </c>
       <c r="DM2">
-        <v>-5.9077396395787805</v>
+        <v>-6.3311695749356378</v>
       </c>
       <c r="DN2">
-        <v>-5.5426197829288641</v>
+        <v>-6.3740648375904678</v>
       </c>
       <c r="DO2">
-        <v>-5.7444857230762558</v>
+        <v>-6.4334206501871991</v>
       </c>
       <c r="DP2">
-        <v>-5.5695987973145682</v>
+        <v>-5.9173375418530334</v>
       </c>
       <c r="DQ2">
-        <v>-5.7030752762520471</v>
+        <v>-6.4195016127713007</v>
       </c>
       <c r="DR2">
-        <v>-5.5108916254507259</v>
+        <v>-6.8522753104333312</v>
       </c>
       <c r="DS2">
-        <v>-5.5624386120836711</v>
+        <v>-6.5265930634623155</v>
       </c>
       <c r="DT2">
-        <v>-5.6879879285678632</v>
+        <v>-6.5787379662123877</v>
       </c>
       <c r="DU2">
-        <v>-5.4526188439638572</v>
+        <v>-8.8934070189379906</v>
       </c>
       <c r="DV2">
-        <v>-5.3427378751593455</v>
+        <v>-6.0952591443740074</v>
       </c>
       <c r="DW2">
-        <v>-5.0413071068046102</v>
+        <v>-5.8524976945172655</v>
       </c>
       <c r="DX2">
-        <v>-5.5359756026456308</v>
+        <v>-8.8880581637268552</v>
       </c>
       <c r="DY2">
-        <v>-5.3529281889659819</v>
+        <v>-8.8848869534270047</v>
       </c>
       <c r="DZ2">
-        <v>-5.6191449449897695</v>
+        <v>-8.7926672981133276</v>
       </c>
       <c r="EA2">
-        <v>-5.5051038631879194</v>
+        <v>-8.6003856902875224</v>
       </c>
       <c r="EB2">
-        <v>-5.269139828669708</v>
+        <v>-6.1871589984645938</v>
       </c>
       <c r="EC2">
-        <v>-5.1711575588295071</v>
+        <v>-5.8652055123460771</v>
       </c>
       <c r="ED2">
-        <v>-5.4303563810872966</v>
+        <v>-6.2552265346401112</v>
       </c>
       <c r="EE2">
-        <v>-5.4914226141879459</v>
+        <v>-6.2986624355107788</v>
       </c>
       <c r="EF2">
-        <v>-5.4346666054460924</v>
+        <v>-6.2194579659054758</v>
       </c>
       <c r="EG2">
-        <v>-5.5460082213177975</v>
+        <v>-6.3611458910718524</v>
       </c>
       <c r="EH2">
-        <v>-5.7178006699143733</v>
+        <v>-6.1852764628832206</v>
       </c>
       <c r="EI2">
-        <v>-5.6143077256459843</v>
+        <v>-8.8934802559769981</v>
       </c>
       <c r="EJ2">
-        <v>-5.2086629634294823</v>
+        <v>-6.1389600721546582</v>
       </c>
       <c r="EK2">
-        <v>-5.4424997920045994</v>
+        <v>-5.8796014218753996</v>
       </c>
       <c r="EL2">
-        <v>-5.0556370748901296</v>
+        <v>-5.0312395692224436</v>
       </c>
       <c r="EM2">
-        <v>-5.2667516767075435</v>
+        <v>-6.9352914929921932</v>
       </c>
       <c r="EN2">
-        <v>-5.0875398327487007</v>
+        <v>-5.7053830606362563</v>
       </c>
       <c r="EO2">
-        <v>-5.0518465909594781</v>
+        <v>-5.5829550601886764</v>
       </c>
       <c r="EP2">
-        <v>-5.1177966761518947</v>
+        <v>-6.0290911874042967</v>
       </c>
       <c r="EQ2">
-        <v>-5.5440659723252734</v>
+        <v>-7.4281057003225017</v>
       </c>
       <c r="ER2">
-        <v>-5.1703396178075156</v>
+        <v>-5.9863023655035406</v>
       </c>
       <c r="ES2">
-        <v>-5.2317295376149007</v>
+        <v>-6.0182288987910111</v>
       </c>
       <c r="ET2">
-        <v>-5.1156912583227285</v>
+        <v>-5.8003494861447278</v>
       </c>
       <c r="EU2">
-        <v>-5.2951545624750915</v>
+        <v>-6.1241114761661191</v>
       </c>
       <c r="EV2">
-        <v>-5.1375020708675763</v>
+        <v>-5.7184878794106977</v>
       </c>
       <c r="EW2">
-        <v>-5.4367126346876047</v>
+        <v>-6.096437920437153</v>
       </c>
       <c r="EX2">
-        <v>-5.0217431242831383</v>
+        <v>-5</v>
       </c>
       <c r="EY2">
-        <v>-5.7014735466116697</v>
+        <v>-5.985114555708245</v>
       </c>
       <c r="EZ2">
-        <v>-5.2036416947257775</v>
+        <v>-7.8169578004369198</v>
       </c>
       <c r="FA2">
-        <v>-5.1059984707286468</v>
+        <v>-6.0215226945955029</v>
       </c>
       <c r="FB2">
-        <v>-5.1963865617370741</v>
+        <v>-5.6470985728238539</v>
       </c>
       <c r="FC2">
-        <v>-5.0903769008038067</v>
+        <v>-6.1680783194784654</v>
       </c>
       <c r="FD2">
-        <v>-5.1913431148185447</v>
+        <v>-5.7366539581203364</v>
       </c>
       <c r="FE2">
-        <v>-5.1336808988528757</v>
+        <v>-5.4581411227498453</v>
       </c>
       <c r="FF2">
-        <v>-5.1697838754024961</v>
+        <v>-5.9172310662837972</v>
       </c>
       <c r="FG2">
-        <v>-5.1443999933490554</v>
+        <v>-5.8794731811267456</v>
       </c>
       <c r="FH2">
-        <v>-5.0737159140031682</v>
+        <v>-6.0026134324540017</v>
       </c>
       <c r="FI2">
-        <v>-5.028236336994472</v>
+        <v>-5.8727055279890417</v>
       </c>
       <c r="FJ2">
-        <v>-5.1379947028712589</v>
+        <v>-5.9998714858163655</v>
       </c>
       <c r="FK2">
-        <v>-5.1396301531857063</v>
+        <v>-5.7004553733713799</v>
       </c>
       <c r="FL2">
-        <v>-5.3371948292208948</v>
+        <v>-6.1190791596662217</v>
       </c>
       <c r="FM2">
-        <v>-5.1309800872422775</v>
+        <v>-5.9782389909939626</v>
       </c>
       <c r="FN2">
-        <v>-5.1067024556181924</v>
+        <v>-5.9576399751754101</v>
       </c>
       <c r="FO2">
-        <v>-5.2072359538022956</v>
+        <v>-6.1121311942893461</v>
       </c>
       <c r="FP2">
-        <v>-5.216480620674413</v>
+        <v>-6.119596755112382</v>
       </c>
       <c r="FQ2">
-        <v>-5.1199578517677109</v>
+        <v>-5</v>
       </c>
       <c r="FR2">
-        <v>-5.1290717824892216</v>
+        <v>-5</v>
       </c>
       <c r="FS2">
-        <v>-5.1853193674921032</v>
+        <v>-5.2779141629802275</v>
       </c>
       <c r="FT2">
-        <v>-5.0984214300855362</v>
+        <v>-5.253010398071515</v>
       </c>
       <c r="FU2">
-        <v>-5.4074857778938972</v>
+        <v>-6.393837991041603</v>
       </c>
       <c r="FV2">
-        <v>-5.5724578401751215</v>
+        <v>-7.9507700560183849</v>
       </c>
       <c r="FW2">
-        <v>-5.0491856489095692</v>
+        <v>-5.7136304117229173</v>
       </c>
       <c r="FX2">
-        <v>-5.0345640285099993</v>
+        <v>-5.5381698300299691</v>
       </c>
       <c r="FY2">
-        <v>-5.1119665494317799</v>
+        <v>-5.9272671428727399</v>
       </c>
       <c r="FZ2">
-        <v>-5.1680791535178097</v>
+        <v>-5.9367152025596335</v>
       </c>
       <c r="GA2">
-        <v>-5.4548281462710992</v>
+        <v>-5.9008473077478092</v>
       </c>
       <c r="GB2">
-        <v>-5.3197779760412267</v>
+        <v>-6.5112532889196224</v>
       </c>
       <c r="GC2">
-        <v>-5.1910157107253889</v>
+        <v>-6.0611897579749971</v>
       </c>
       <c r="GD2">
-        <v>-5.1479810246928208</v>
+        <v>-6.047646606604606</v>
       </c>
       <c r="GE2">
-        <v>-5.0489423667397046</v>
+        <v>-5</v>
       </c>
       <c r="GF2">
-        <v>-5.1615446984804985</v>
+        <v>-5</v>
       </c>
       <c r="GG2">
-        <v>-5.1557868529898663</v>
+        <v>-5.6007056573760368</v>
       </c>
       <c r="GH2">
-        <v>-5.1234416328770269</v>
+        <v>-5.7454640936039603</v>
       </c>
       <c r="GI2">
-        <v>-5.0432827998069847</v>
+        <v>-5</v>
       </c>
       <c r="GJ2">
-        <v>-5.1185689351191757</v>
+        <v>-5.031239581520583</v>
       </c>
       <c r="GK2">
-        <v>-5.2147409127414033</v>
+        <v>-6.0180883064603474</v>
       </c>
       <c r="GL2">
-        <v>-5.1774735697879368</v>
+        <v>-5.9824619519337103</v>
       </c>
       <c r="GM2">
-        <v>-5.3200180721395594</v>
+        <v>-6.1456502134352222</v>
       </c>
       <c r="GN2">
-        <v>-5.1575642224279887</v>
+        <v>-6.0851216283988334</v>
       </c>
       <c r="GO2">
-        <v>-5.3535951834865951</v>
+        <v>-5.9017709771816209</v>
       </c>
       <c r="GP2">
-        <v>-5.2923355606594251</v>
+        <v>-6.1212976440074582</v>
       </c>
       <c r="GQ2">
-        <v>-5.1155720799152435</v>
+        <v>-6.0140463777264026</v>
       </c>
       <c r="GR2">
-        <v>-5.2228662087294904</v>
+        <v>-6.1104792789128091</v>
       </c>
       <c r="GS2">
-        <v>-5.1853903411055002</v>
+        <v>-6.0004934407999269</v>
       </c>
       <c r="GT2">
-        <v>-5.1234456331364946</v>
+        <v>-6.0058847356586424</v>
       </c>
       <c r="GU2">
-        <v>-5.2251323675679329</v>
+        <v>-6.0959446995177906</v>
       </c>
       <c r="GV2">
-        <v>-5.2441528947259233</v>
+        <v>-5.976456356225043</v>
       </c>
       <c r="GW2">
-        <v>-5.0970199606474855</v>
+        <v>-6.1302647335190876</v>
       </c>
       <c r="GX2">
-        <v>-5.1660317367851496</v>
+        <v>-6.2307936508519006</v>
       </c>
       <c r="GY2">
-        <v>-5.2310419344958099</v>
+        <v>-6.0729891094951203</v>
       </c>
       <c r="GZ2">
-        <v>-5.1773758084809467</v>
+        <v>-6.2906976460855635</v>
       </c>
       <c r="HA2">
-        <v>-5.4122386517961916</v>
+        <v>-6.1053176658222572</v>
       </c>
       <c r="HB2">
-        <v>-5.2293057239580572</v>
+        <v>-6.7477408832062524</v>
       </c>
       <c r="HC2">
-        <v>-5.3596832256334128</v>
+        <v>-6.0875057132267942</v>
       </c>
       <c r="HD2">
-        <v>-5.7165703293104295</v>
+        <v>-6.1284718241670557</v>
       </c>
       <c r="HE2">
-        <v>-5.0889487653599934</v>
+        <v>-5.8073228702791129</v>
       </c>
       <c r="HF2">
-        <v>-5.1936713257991229</v>
+        <v>-6.0243251292361339</v>
       </c>
       <c r="HG2">
-        <v>-5.2840287143148483</v>
+        <v>-6.1122169573074183</v>
       </c>
       <c r="HH2">
-        <v>-5.225129325138572</v>
+        <v>-5.8913857809184744</v>
       </c>
       <c r="HI2">
-        <v>-5.4057543091951699</v>
+        <v>-6.346121604450186</v>
       </c>
       <c r="HJ2">
-        <v>-5.216345137896087</v>
+        <v>-6.1402608358874442</v>
       </c>
       <c r="HK2">
-        <v>-5.2073145605335007</v>
+        <v>-6.0588883767056343</v>
       </c>
       <c r="HL2">
-        <v>-5.2852553462873315</v>
+        <v>-6.1345573039000927</v>
       </c>
       <c r="HM2">
-        <v>-5.362321268425954</v>
+        <v>-8.9248840426748899</v>
       </c>
       <c r="HN2">
-        <v>-5.3035765595418098</v>
+        <v>-6.1248513449509145</v>
       </c>
       <c r="HO2">
-        <v>-5.3689584679615132</v>
+        <v>-6.0730898820557133</v>
       </c>
       <c r="HP2">
-        <v>-5.273627298230255</v>
+        <v>-6.223785116580661</v>
       </c>
       <c r="HQ2">
-        <v>-5.1635474478648229</v>
+        <v>-5.9599640174972048</v>
       </c>
       <c r="HR2">
-        <v>-5.163550753728571</v>
+        <v>-5.9580610961819831</v>
       </c>
       <c r="HS2">
-        <v>-5.0760841829809609</v>
+        <v>-5.7679742922437294</v>
       </c>
       <c r="HT2">
-        <v>-5.1411795557650191</v>
+        <v>-5.7571104820777421</v>
       </c>
       <c r="HU2">
-        <v>-5.2612091517255113</v>
+        <v>-6.1780269150327154</v>
       </c>
       <c r="HV2">
-        <v>-5.3272937789042043</v>
+        <v>-6.1208789431035866</v>
       </c>
       <c r="HW2">
-        <v>-5.3368636378151466</v>
+        <v>-6.0431791071089664</v>
       </c>
       <c r="HX2">
-        <v>-5.220376179906161</v>
+        <v>-6.0647229700219318</v>
       </c>
       <c r="HY2">
-        <v>-5.2522820362889382</v>
+        <v>-6.0685068835703664</v>
       </c>
       <c r="HZ2">
-        <v>-5.2732552312643435</v>
+        <v>-6.1061865443611705</v>
       </c>
       <c r="IA2">
-        <v>-5.5437743451373143</v>
+        <v>-6.1714561818533973</v>
       </c>
       <c r="IB2">
-        <v>-5.3980957962407423</v>
+        <v>-6.2773746681720706</v>
       </c>
       <c r="IC2">
-        <v>-5.0423286619066285</v>
+        <v>-5.020696194177634</v>
       </c>
       <c r="ID2">
-        <v>-5.0268944106302422</v>
+        <v>-5.3076739381394882</v>
       </c>
       <c r="IE2">
-        <v>-5.1374250284958602</v>
+        <v>-5.2790448573543154</v>
       </c>
       <c r="IF2">
-        <v>-5.1114112342304114</v>
+        <v>-5.2942809485303375</v>
       </c>
       <c r="IG2">
-        <v>-5.1099607963081732</v>
+        <v>-5.3635044725840899</v>
       </c>
       <c r="IH2">
-        <v>-5.1822584421165105</v>
+        <v>-5</v>
       </c>
       <c r="II2">
-        <v>-5.1261182644966734</v>
+        <v>-5</v>
       </c>
       <c r="IJ2">
-        <v>-5.1097473134086089</v>
+        <v>-5</v>
       </c>
       <c r="IK2">
-        <v>-5.1306703437942121</v>
+        <v>-5.5904897227894326</v>
       </c>
       <c r="IL2">
-        <v>-5.0394363408552394</v>
+        <v>-5.6886283631546704</v>
       </c>
       <c r="IM2">
-        <v>-5.0330956950245946</v>
+        <v>-5.4458508058540973</v>
       </c>
       <c r="IN2">
-        <v>-5.0457326045053561</v>
+        <v>-5.6246950947705381</v>
       </c>
       <c r="IO2">
-        <v>-5.0665994395196812</v>
+        <v>-5.4018050428347051</v>
       </c>
       <c r="IP2">
-        <v>-5.0422043059929633</v>
+        <v>-5.3541092100023491</v>
       </c>
       <c r="IQ2">
-        <v>-5.0395921112551134</v>
+        <v>-5</v>
       </c>
       <c r="IR2">
-        <v>-5.0510859752536099</v>
+        <v>-5</v>
       </c>
       <c r="IS2">
-        <v>-5.1451504933447465</v>
+        <v>-5</v>
       </c>
       <c r="IT2">
-        <v>-5.1234258129693879</v>
+        <v>-5</v>
       </c>
       <c r="IU2">
-        <v>-5.0135909888478736</v>
+        <v>-5.0479987120123022</v>
       </c>
       <c r="IV2">
-        <v>-5.0638958649424302</v>
+        <v>-5.0565297848901745</v>
       </c>
       <c r="IW2">
-        <v>-5.0740185678558216</v>
+        <v>-5</v>
       </c>
       <c r="IX2">
-        <v>-5.0544028514829593</v>
+        <v>-5.2965711577137915</v>
       </c>
       <c r="IY2">
-        <v>-5.1248534287805576</v>
+        <v>-6.0203498528458459</v>
       </c>
       <c r="IZ2">
-        <v>-5.042892904911576</v>
+        <v>-6.0432876810283984</v>
       </c>
       <c r="JA2">
-        <v>-5.0833747085366392</v>
+        <v>-6.207589194004699</v>
       </c>
       <c r="JB2">
-        <v>-5.064415895199688</v>
+        <v>-6.2812544851919689</v>
       </c>
       <c r="JC2">
-        <v>-5.2570259334547416</v>
+        <v>-5.9063177030490026</v>
       </c>
       <c r="JD2">
-        <v>-5.1657862250919067</v>
+        <v>-5.965667727290012</v>
       </c>
       <c r="JE2">
-        <v>-5.4338715393020385</v>
+        <v>-8.8860974347698303</v>
       </c>
       <c r="JF2">
-        <v>-5.5065790665210264</v>
+        <v>-8.6843035237220469</v>
       </c>
       <c r="JG2">
-        <v>-5.0798281432553587</v>
+        <v>-5.9386501184120108</v>
       </c>
       <c r="JH2">
-        <v>-5.2149394997141982</v>
+        <v>-6.0550622037919828</v>
       </c>
       <c r="JI2">
-        <v>-5.4687294244698164</v>
+        <v>-8.839087720317508</v>
       </c>
       <c r="JJ2">
-        <v>-5.5538624287231206</v>
+        <v>-6.0127576441067294</v>
       </c>
       <c r="JK2">
-        <v>-5.1042937720715091</v>
+        <v>-6.246726773919586</v>
       </c>
       <c r="JL2">
-        <v>-5.2051425392514501</v>
+        <v>-6.1989124973012064</v>
       </c>
       <c r="JM2">
-        <v>-5.3120801850893535</v>
+        <v>-6.059834360468245</v>
       </c>
       <c r="JN2">
-        <v>-5.558433699885021</v>
-      </c>
-      <c r="JO2">
-        <v>-5.6782497846938869</v>
-      </c>
-      <c r="JP2">
-        <v>-5.5091779884710421</v>
-      </c>
-      <c r="JQ2">
-        <v>-5.203271988858118</v>
-      </c>
-      <c r="JR2">
-        <v>-5.2536324193587873</v>
+        <v>-5.9737989879048365</v>
       </c>
     </row>
   </sheetData>
